--- a/TestData/Production/Web_POS/Order/add_to_cart_order_test_data.xlsx
+++ b/TestData/Production/Web_POS/Order/add_to_cart_order_test_data.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="Calc"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samarth\Downloads\TestData\TestData\Production\Web_POS\Order\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullPrecision="1" calcId="125725"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63" count="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>TC_Id</t>
   </si>
@@ -67,66 +72,69 @@
     <t>tax_invoice</t>
   </si>
   <si>
+    <t>user_mobile</t>
+  </si>
+  <si>
     <t>ATC_01</t>
   </si>
   <si>
+    <t>239060824HOZ</t>
+  </si>
+  <si>
+    <t>Zwingautomation78@gmail.com</t>
+  </si>
+  <si>
     <t>O_add_to_cart_user1_p1</t>
   </si>
   <si>
-    <t>zwshashank.agrawal@teampureplay.com</t>
+    <t>2000 : 1</t>
+  </si>
+  <si>
+    <t>500 : 1</t>
+  </si>
+  <si>
+    <t>Index9QA</t>
+  </si>
+  <si>
+    <t>8906118410781 : 1</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Dummy</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>ATC_02</t>
+  </si>
+  <si>
+    <t>Alexa67 : 1</t>
+  </si>
+  <si>
+    <t>ATC_03</t>
+  </si>
+  <si>
+    <t>ATC_04</t>
+  </si>
+  <si>
+    <t>ATC_05</t>
+  </si>
+  <si>
+    <t>2390608248O4</t>
   </si>
   <si>
     <t>O_add_to_cart_user2_p8</t>
   </si>
   <si>
-    <t>2000 : 1</t>
-  </si>
-  <si>
-    <t>500 : 1</t>
-  </si>
-  <si>
-    <t>Index9QA</t>
-  </si>
-  <si>
-    <t>8906118410781 : 1</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>Dummy</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>ATC_02</t>
-  </si>
-  <si>
-    <t>Alexa67 : 1</t>
-  </si>
-  <si>
-    <t>ATC_03</t>
-  </si>
-  <si>
-    <t>ATC_04</t>
-  </si>
-  <si>
-    <t>ATC_05</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>ATC_06</t>
   </si>
   <si>
@@ -191,43 +199,28 @@
   </si>
   <si>
     <t>ATC_21</t>
-  </si>
-  <si>
-    <t>admin@sunrise.com</t>
-  </si>
-  <si>
-    <t>2390608248O4</t>
-  </si>
-  <si>
-    <t>Zwingautomation78@gmail.com</t>
-  </si>
-  <si>
-    <t>239060824HOZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,41 +228,17 @@
       <sz val="10"/>
       <color rgb="FF2B579A"/>
       <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125">
         <fgColor indexed="64"/>
         <bgColor indexed="65"/>
       </patternFill>
@@ -282,60 +251,49 @@
     </fill>
   </fills>
   <borders count="2">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color rgb="FF2B579A"/>
       </right>
-      <top/>
       <bottom style="medium">
         <color rgb="FF2B579A"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1">
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="ConditionalFormatStyle" xfId="1"/>
     <cellStyle name="HeaderStyle" xfId="2"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0"/>
-  <tableStyles xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0"/>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -580,38 +538,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr/>
-  <dimension ref="A1:X69"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView topLeftCell="A17" view="normal" tabSelected="1" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" sqref="G2:H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63281" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="25.890625" customWidth="1"/>
-    <col min="3" max="3" width="43.9296875" customWidth="1"/>
-    <col min="4" max="4" width="19.27734375" customWidth="1"/>
-    <col min="5" max="5" width="42.84765625" customWidth="1"/>
-    <col min="6" max="6" width="14.8203125" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" customWidth="1"/>
-    <col min="8" max="9" width="19.09765625" customWidth="1"/>
-    <col min="10" max="10" width="39.640625" style="1" customWidth="1"/>
-    <col min="11" max="12" width="31.95703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.57031"/>
+    <col min="2" max="2" width="25.89063" customWidth="1"/>
+    <col min="3" max="3" width="43.92969" customWidth="1"/>
+    <col min="4" max="4" width="19.27734" customWidth="1"/>
+    <col min="5" max="5" width="42.84766" customWidth="1"/>
+    <col min="6" max="6" width="14.82031" customWidth="1"/>
+    <col min="7" max="7" width="16.77734" customWidth="1"/>
+    <col min="8" max="9" width="19.09766" customWidth="1"/>
+    <col min="10" max="10" width="39.64063" style="1" customWidth="1"/>
+    <col min="11" max="12" width="31.95703" style="1" customWidth="1"/>
     <col min="13" max="13" width="28.75" customWidth="1"/>
-    <col min="14" max="15" width="10.70703125" customWidth="1"/>
-    <col min="16" max="17" width="19.09765625" customWidth="1"/>
+    <col min="14" max="15" width="10.70703" customWidth="1"/>
+    <col min="16" max="17" width="19.09766" customWidth="1"/>
     <col min="18" max="18" width="36.25" style="1" customWidth="1"/>
     <col min="19" max="20" width="22.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="23.9296875" customWidth="1"/>
-    <col min="22" max="24" width="29.45703125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="23.20703125" customWidth="1"/>
+    <col min="21" max="21" width="23.92969" customWidth="1"/>
+    <col min="22" max="24" width="29.45703" style="1" customWidth="1"/>
+    <col min="25" max="25" width="23.20703" customWidth="1"/>
     <col min="26" max="26" width="15" customWidth="1"/>
-    <col min="27" max="27" width="18.9296875" customWidth="1"/>
+    <col min="27" max="27" width="18.92969" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -663,1058 +620,1124 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="33.75" customHeight="1">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" ht="33.75" customHeight="1">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
         <v>1234</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2">
         <v>123456</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" s="4">
         <v>45384</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="19.5" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="R2" s="1">
+        <v>7896123569</v>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
         <v>1234</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2">
         <v>123456</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" s="4">
         <v>45384</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="31.5" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="R3" s="1">
+        <v>7896123569</v>
+      </c>
+    </row>
+    <row r="4" ht="31.5" customHeight="1">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2">
         <v>1234</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2">
         <v>123456</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L4" s="4">
         <v>45384</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="R4" s="1">
+        <v>7896123569</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
         <v>1234</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2">
         <v>123456</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L5" s="4">
         <v>45384</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="26.25" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="R5" s="1">
+        <v>7896123569</v>
+      </c>
+    </row>
+    <row r="6" ht="26.25" customHeight="1">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
         <v>1234</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F6" s="2">
         <v>123456</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L6" s="4">
         <v>45384</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="30" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="R6" s="1">
+        <v>7896324589</v>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="1">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2">
         <v>1234</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2">
         <v>123456</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L7" s="4">
         <v>45384</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="31.5" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="R7" s="1">
+        <v>7896123569</v>
+      </c>
+    </row>
+    <row r="8" ht="31.5" customHeight="1">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2">
         <v>1234</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F8" s="2">
         <v>123456</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L8" s="4">
         <v>45384</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="32.25" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="R8" s="1">
+        <v>7896324589</v>
+      </c>
+    </row>
+    <row r="9" ht="32.25" customHeight="1">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2">
         <v>1234</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2">
         <v>123456</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L9" s="4">
         <v>45384</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="28.5" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="R9" s="1">
+        <v>7896123569</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" customHeight="1">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
         <v>1234</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2">
         <v>123456</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L10" s="4">
         <v>45384</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="28.5" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="R10" s="1">
+        <v>7896324589</v>
+      </c>
+    </row>
+    <row r="11" ht="28.5" customHeight="1">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
         <v>1234</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2">
         <v>123456</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L11" s="4">
         <v>45384</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="28.5" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="R11" s="1">
+        <v>7896123569</v>
+      </c>
+    </row>
+    <row r="12" ht="28.5" customHeight="1">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2">
         <v>1234</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2">
         <v>123456</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L12" s="4">
         <v>45384</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="28.5" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="R12" s="1">
+        <v>7896123569</v>
+      </c>
+    </row>
+    <row r="13" ht="28.5" customHeight="1">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2">
         <v>1234</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2">
         <v>123456</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L13" s="4">
         <v>45384</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="28.5" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="R13" s="1">
+        <v>7896123569</v>
+      </c>
+    </row>
+    <row r="14" ht="28.5" customHeight="1">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2">
         <v>1234</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F14" s="2">
         <v>123456</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L14" s="4">
         <v>45384</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="28.5" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="R14" s="1">
+        <v>7896123569</v>
+      </c>
+    </row>
+    <row r="15" ht="28.5" customHeight="1">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2">
         <v>1234</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F15" s="2">
         <v>123456</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L15" s="4">
         <v>45384</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="28.5" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="R15" s="1">
+        <v>7896123569</v>
+      </c>
+    </row>
+    <row r="16" ht="28.5" customHeight="1">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2">
         <v>1234</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F16" s="2">
         <v>123456</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L16" s="4">
         <v>45384</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="24">
+        <v>30</v>
+      </c>
+      <c r="R16" s="1">
+        <v>7896123569</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2">
         <v>1234</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2">
         <v>123456</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L17" s="4">
         <v>45384</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="24">
+        <v>30</v>
+      </c>
+      <c r="R17" s="1">
+        <v>7896324589</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2">
         <v>1234</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F18" s="2">
         <v>123456</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L18" s="4">
         <v>45384</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="24">
+        <v>30</v>
+      </c>
+      <c r="R18" s="1">
+        <v>7896123569</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2">
         <v>1234</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F19" s="2">
         <v>123456</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L19" s="4">
         <v>45384</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="24">
+        <v>30</v>
+      </c>
+      <c r="R19" s="1">
+        <v>7896324589</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2">
         <v>1234</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F20" s="2">
         <v>123456</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L20" s="4">
         <v>45384</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="24">
+        <v>30</v>
+      </c>
+      <c r="R20" s="1">
+        <v>7896123569</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2">
         <v>1234</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F21" s="2">
         <v>123456</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L21" s="4">
         <v>45384</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="24">
+        <v>30</v>
+      </c>
+      <c r="R21" s="1">
+        <v>7896123569</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2">
         <v>1234</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F22" s="2">
         <v>123456</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L22" s="4">
         <v>45384</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" ht="14.25">
+        <v>30</v>
+      </c>
+      <c r="R22" s="1">
+        <v>7896123569</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1726,7 +1749,7 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="2:15" ht="14.25">
+    <row r="24" ht="14.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1738,7 +1761,7 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="2:15" ht="14.25">
+    <row r="25" ht="14.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1750,7 +1773,7 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="2:15" ht="14.25">
+    <row r="26" ht="14.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1762,7 +1785,7 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="2:15" ht="14.25">
+    <row r="27" ht="14.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1774,7 +1797,7 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="2:15" ht="14.25">
+    <row r="28" ht="14.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1786,7 +1809,7 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
     </row>
-    <row r="29" spans="2:15" ht="14.25">
+    <row r="29" ht="14.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1798,7 +1821,7 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
     </row>
-    <row r="30" spans="2:21" ht="14.25">
+    <row r="30" ht="14.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1814,7 +1837,7 @@
       <c r="T30" s="5"/>
       <c r="U30" s="6"/>
     </row>
-    <row r="31" spans="2:15" ht="14.25">
+    <row r="31" ht="14.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1826,7 +1849,7 @@
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="2:15" ht="14.25">
+    <row r="32" ht="14.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1838,7 +1861,7 @@
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
     </row>
-    <row r="33" spans="2:15" ht="14.25">
+    <row r="33" ht="14.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1850,7 +1873,7 @@
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
     </row>
-    <row r="34" spans="2:15" ht="14.25">
+    <row r="34" ht="14.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1862,48 +1885,48 @@
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
     </row>
-    <row r="35" spans="18:21">
+    <row r="35">
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
       <c r="U35" s="6"/>
     </row>
-    <row r="36" spans="18:21">
+    <row r="36">
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
       <c r="U36" s="6"/>
     </row>
-    <row r="37" spans="18:21">
+    <row r="37">
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
       <c r="U37" s="6"/>
     </row>
-    <row r="38" spans="18:21">
+    <row r="38">
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
       <c r="U38" s="6"/>
     </row>
-    <row r="39" spans="18:21">
+    <row r="39">
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
       <c r="U39" s="6"/>
     </row>
-    <row r="40" spans="21:21">
+    <row r="40">
       <c r="U40" s="1"/>
     </row>
-    <row r="41" spans="21:21">
+    <row r="41">
       <c r="U41" s="1"/>
     </row>
-    <row r="42" spans="18:20">
+    <row r="42">
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
       <c r="T42" s="6"/>
     </row>
-    <row r="44" spans="2:21" ht="14.25">
+    <row r="44" ht="14.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1911,7 +1934,7 @@
       <c r="F44" s="2"/>
       <c r="I44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
@@ -1922,7 +1945,7 @@
       <c r="T44" s="5"/>
       <c r="U44" s="6"/>
     </row>
-    <row r="45" spans="2:15" ht="14.25">
+    <row r="45" ht="14.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1930,14 +1953,14 @@
       <c r="F45" s="2"/>
       <c r="I45" s="1"/>
       <c r="K45" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
     </row>
-    <row r="46" spans="2:15" ht="14.25">
+    <row r="46" ht="14.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1945,14 +1968,14 @@
       <c r="F46" s="2"/>
       <c r="I46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
     </row>
-    <row r="47" spans="2:15" ht="14.25">
+    <row r="47" ht="14.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1960,14 +1983,14 @@
       <c r="F47" s="2"/>
       <c r="I47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
     </row>
-    <row r="48" spans="2:15" ht="14.25">
+    <row r="48" ht="14.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1975,14 +1998,14 @@
       <c r="F48" s="2"/>
       <c r="I48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
     </row>
-    <row r="49" spans="2:15" ht="14.25">
+    <row r="49" ht="14.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1990,14 +2013,14 @@
       <c r="F49" s="2"/>
       <c r="I49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
     </row>
-    <row r="50" spans="2:15" ht="14.25">
+    <row r="50" ht="14.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2005,14 +2028,14 @@
       <c r="F50" s="2"/>
       <c r="I50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
     </row>
-    <row r="51" spans="2:15" ht="14.25">
+    <row r="51" ht="14.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2020,14 +2043,14 @@
       <c r="F51" s="2"/>
       <c r="I51" s="1"/>
       <c r="K51" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
     </row>
-    <row r="52" spans="2:15" ht="14.25">
+    <row r="52" ht="14.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2035,14 +2058,14 @@
       <c r="F52" s="2"/>
       <c r="I52" s="1"/>
       <c r="K52" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
     </row>
-    <row r="53" spans="2:15" ht="14.25">
+    <row r="53" ht="14.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2050,14 +2073,14 @@
       <c r="F53" s="2"/>
       <c r="I53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
     </row>
-    <row r="54" spans="2:15" ht="14.25">
+    <row r="54" ht="14.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2069,7 +2092,7 @@
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
     </row>
-    <row r="55" spans="2:15" ht="14.25">
+    <row r="55" ht="14.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2081,7 +2104,7 @@
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
     </row>
-    <row r="56" spans="2:15" ht="14.25">
+    <row r="56" ht="14.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2093,7 +2116,7 @@
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
     </row>
-    <row r="57" spans="2:15" ht="14.25">
+    <row r="57" ht="14.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2105,7 +2128,7 @@
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
     </row>
-    <row r="58" spans="2:15" ht="14.25">
+    <row r="58" ht="14.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2117,7 +2140,7 @@
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
     </row>
-    <row r="59" spans="2:15" ht="14.25">
+    <row r="59" ht="14.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2129,7 +2152,7 @@
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
     </row>
-    <row r="60" spans="2:15" ht="14.25">
+    <row r="60" ht="14.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2141,7 +2164,7 @@
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
     </row>
-    <row r="61" spans="2:15" ht="14.25">
+    <row r="61" ht="14.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2153,7 +2176,7 @@
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
     </row>
-    <row r="62" spans="2:15" ht="14.25">
+    <row r="62" ht="14.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2165,7 +2188,7 @@
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
     </row>
-    <row r="63" spans="2:15" ht="14.25">
+    <row r="63" ht="14.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2177,7 +2200,7 @@
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
     </row>
-    <row r="64" spans="2:15" ht="14.25">
+    <row r="64" ht="14.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2189,7 +2212,7 @@
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
     </row>
-    <row r="65" spans="2:15" ht="14.25">
+    <row r="65" ht="14.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2201,7 +2224,7 @@
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
     </row>
-    <row r="66" spans="2:15" ht="14.25">
+    <row r="66" ht="14.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -2213,7 +2236,7 @@
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
     </row>
-    <row r="67" spans="2:15" ht="14.25">
+    <row r="67" ht="14.25">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2225,7 +2248,7 @@
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
     </row>
-    <row r="68" spans="2:15" ht="14.25">
+    <row r="68" ht="14.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -2237,7 +2260,7 @@
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
     </row>
-    <row r="69" spans="2:15" ht="14.25">
+    <row r="69" ht="14.25">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2252,7 +2275,6 @@
   </sheetData>
   <pageMargins left="0.7479166" right="0.7479166" top="0.9840278" bottom="0.9840278" header="0.5118055" footer="0.5118055"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
-  <extLst/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/TestData/Production/Web_POS/Order/add_to_cart_order_test_data.xlsx
+++ b/TestData/Production/Web_POS/Order/add_to_cart_order_test_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samarth\Downloads\TestData\TestData\Production\Web_POS\Order\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anand\PycharmProjects\production api\zwing-qa-automation\TestData\Production\Web_POS\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -117,7 +117,7 @@
     <t>ATC_02</t>
   </si>
   <si>
-    <t>Alexa67 : 1</t>
+    <t>Alexa678 : 1</t>
   </si>
   <si>
     <t>ATC_03</t>
@@ -159,37 +159,37 @@
     <t>ATC_13</t>
   </si>
   <si>
-    <t>Alexa67 : 1.8</t>
+    <t>Alexa678 : 1.8</t>
   </si>
   <si>
     <t>ATC_14</t>
   </si>
   <si>
-    <t>Alexa67 : 1.9</t>
+    <t>Alexa678 : 1.9</t>
   </si>
   <si>
     <t>ATC_15</t>
   </si>
   <si>
-    <t>Alexa67 : 1.10</t>
+    <t>Alexa678 : 1.10</t>
   </si>
   <si>
     <t>ATC_16</t>
   </si>
   <si>
-    <t>Alexa67 : 1.11</t>
+    <t>Alexa678 : 1.11</t>
   </si>
   <si>
     <t>ATC_17</t>
   </si>
   <si>
-    <t>Alexa67 : 1.12</t>
+    <t>Alexa678 : 1.12</t>
   </si>
   <si>
     <t>ATC_18</t>
   </si>
   <si>
-    <t>Alexa67 : 1.13</t>
+    <t>Alexa678 : 1.13</t>
   </si>
   <si>
     <t>ATC_19</t>
@@ -540,8 +540,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="G1">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.63281" defaultRowHeight="12.75"/>
